--- a/ftse.xlsx
+++ b/ftse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="645" windowWidth="18675" windowHeight="7935"/>
+    <workbookView xWindow="600" yWindow="645" windowWidth="17520" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="445">
   <si>
     <t>Company</t>
   </si>
@@ -742,13 +742,622 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>AAL.L</t>
+  </si>
+  <si>
+    <t>Anglo American PLC</t>
+  </si>
+  <si>
+    <t>ABF.L</t>
+  </si>
+  <si>
+    <t>Associated British Foods PLC</t>
+  </si>
+  <si>
+    <t>ADM.L</t>
+  </si>
+  <si>
+    <t>Admiral Group PLC</t>
+  </si>
+  <si>
+    <t>ADN.L</t>
+  </si>
+  <si>
+    <t>Aberdeen Asset Management PLC</t>
+  </si>
+  <si>
+    <t>AGK.L</t>
+  </si>
+  <si>
+    <t>Aggreko PLC</t>
+  </si>
+  <si>
+    <t>AHT.L</t>
+  </si>
+  <si>
+    <t>Ashtead Group PLC</t>
+  </si>
+  <si>
+    <t>ANTO.L</t>
+  </si>
+  <si>
+    <t>Antofagasta PLC</t>
+  </si>
+  <si>
+    <t>ARM.L</t>
+  </si>
+  <si>
+    <t>ARM Holdings PLC</t>
+  </si>
+  <si>
+    <t>AV.L</t>
+  </si>
+  <si>
+    <t>Aviva PLC</t>
+  </si>
+  <si>
+    <t>AZN.L</t>
+  </si>
+  <si>
+    <t>AstraZeneca PLC</t>
+  </si>
+  <si>
+    <t>BA.L</t>
+  </si>
+  <si>
+    <t>BAE Systems PLC</t>
+  </si>
+  <si>
+    <t>BAB.L</t>
+  </si>
+  <si>
+    <t>Babcock International Group PLC</t>
+  </si>
+  <si>
+    <t>BARC.L</t>
+  </si>
+  <si>
+    <t>Barclays PLC</t>
+  </si>
+  <si>
+    <t>BATS.L</t>
+  </si>
+  <si>
+    <t>British American Tobacco PLC</t>
+  </si>
+  <si>
+    <t>BDEV.L</t>
+  </si>
+  <si>
+    <t>Barratt Developments PLC</t>
+  </si>
+  <si>
+    <t>BG.L</t>
+  </si>
+  <si>
+    <t>BG Group PLC</t>
+  </si>
+  <si>
+    <t>BLND.L</t>
+  </si>
+  <si>
+    <t>British Land Co PLC</t>
+  </si>
+  <si>
+    <t>BLT.L</t>
+  </si>
+  <si>
+    <t>BHP Billiton PLC</t>
+  </si>
+  <si>
+    <t>BNZL.L</t>
+  </si>
+  <si>
+    <t>Bunzl PLC</t>
+  </si>
+  <si>
+    <t>BP.L</t>
+  </si>
+  <si>
+    <t>BP PLC</t>
+  </si>
+  <si>
+    <t>BRBY.L</t>
+  </si>
+  <si>
+    <t>Burberry Group PLC</t>
+  </si>
+  <si>
+    <t>BSY.L</t>
+  </si>
+  <si>
+    <t>British Sky Broadcasting Group PLC</t>
+  </si>
+  <si>
+    <t>BT-A.L</t>
+  </si>
+  <si>
+    <t>BT Group PLC</t>
+  </si>
+  <si>
+    <t>CCH.L</t>
+  </si>
+  <si>
+    <t>COCA-COLA HBC N</t>
+  </si>
+  <si>
+    <t>CCL.L</t>
+  </si>
+  <si>
+    <t>Carnival PLC</t>
+  </si>
+  <si>
+    <t>CNA.L</t>
+  </si>
+  <si>
+    <t>Centrica PLC</t>
+  </si>
+  <si>
+    <t>CPG.L</t>
+  </si>
+  <si>
+    <t>Compass Group PLC</t>
+  </si>
+  <si>
+    <t>CPI.L</t>
+  </si>
+  <si>
+    <t>Capita PLC</t>
+  </si>
+  <si>
+    <t>CRH.L</t>
+  </si>
+  <si>
+    <t>CRH PLC</t>
+  </si>
+  <si>
+    <t>DGE.L</t>
+  </si>
+  <si>
+    <t>Diageo PLC</t>
+  </si>
+  <si>
+    <t>EXPN.L</t>
+  </si>
+  <si>
+    <t>Experian PLC</t>
+  </si>
+  <si>
+    <t>EZJ.L</t>
+  </si>
+  <si>
+    <t>easyJet PLC</t>
+  </si>
+  <si>
+    <t>FLG.L</t>
+  </si>
+  <si>
+    <t>Friends Life Group Limited</t>
+  </si>
+  <si>
+    <t>FRES.L</t>
+  </si>
+  <si>
+    <t>Fresnillo PLC</t>
+  </si>
+  <si>
+    <t>GFS.L</t>
+  </si>
+  <si>
+    <t>G4S PLC</t>
+  </si>
+  <si>
+    <t>GKN.L</t>
+  </si>
+  <si>
+    <t>GKN PLC</t>
+  </si>
+  <si>
+    <t>GLEN.L</t>
+  </si>
+  <si>
+    <t>Glencore PLC</t>
+  </si>
+  <si>
+    <t>GSK.L</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline PLC</t>
+  </si>
+  <si>
+    <t>HL.L</t>
+  </si>
+  <si>
+    <t>Hargreaves Lansdown PLC</t>
+  </si>
+  <si>
+    <t>HMSO.L</t>
+  </si>
+  <si>
+    <t>Hammerson PLC</t>
+  </si>
+  <si>
+    <t>HSBA.L</t>
+  </si>
+  <si>
+    <t>HSBC Holdings PLC</t>
+  </si>
+  <si>
+    <t>IAG.L</t>
+  </si>
+  <si>
+    <t>IHG.L</t>
+  </si>
+  <si>
+    <t>InterContinental Hotels Group PLC</t>
+  </si>
+  <si>
+    <t>III.L</t>
+  </si>
+  <si>
+    <t>3i Group PLC</t>
+  </si>
+  <si>
+    <t>IMI.L</t>
+  </si>
+  <si>
+    <t>IMI PLC</t>
+  </si>
+  <si>
+    <t>IMT.L</t>
+  </si>
+  <si>
+    <t>Imperial Tobacco Group PLC</t>
+  </si>
+  <si>
+    <t>INTU.L</t>
+  </si>
+  <si>
+    <t>intu properties plc</t>
+  </si>
+  <si>
+    <t>ITRK.L</t>
+  </si>
+  <si>
+    <t>Intertek Group PLC</t>
+  </si>
+  <si>
+    <t>ITV.L</t>
+  </si>
+  <si>
+    <t>ITV PLC</t>
+  </si>
+  <si>
+    <t>JMAT.L</t>
+  </si>
+  <si>
+    <t>Johnson Matthey PLC</t>
+  </si>
+  <si>
+    <t>KGF.L</t>
+  </si>
+  <si>
+    <t>Kingfisher PLC</t>
+  </si>
+  <si>
+    <t>LAND.L</t>
+  </si>
+  <si>
+    <t>Land Securities Group PLC</t>
+  </si>
+  <si>
+    <t>LGEN.L</t>
+  </si>
+  <si>
+    <t>Legal &amp; General Group PLC</t>
+  </si>
+  <si>
+    <t>LLOY.L</t>
+  </si>
+  <si>
+    <t>Lloyds Banking Group PLC</t>
+  </si>
+  <si>
+    <t>LSE.L</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group PLC</t>
+  </si>
+  <si>
+    <t>MGGT.L</t>
+  </si>
+  <si>
+    <t>Meggitt PLC</t>
+  </si>
+  <si>
+    <t>MKS.L</t>
+  </si>
+  <si>
+    <t>Marks &amp; Spencer Group PLC</t>
+  </si>
+  <si>
+    <t>MNDI.L</t>
+  </si>
+  <si>
+    <t>Mondi PLC</t>
+  </si>
+  <si>
+    <t>MRW.L</t>
+  </si>
+  <si>
+    <t>Morrison (Wm) Supermarkets PLC</t>
+  </si>
+  <si>
+    <t>NG.L</t>
+  </si>
+  <si>
+    <t>National Grid PLC</t>
+  </si>
+  <si>
+    <t>NXT.L</t>
+  </si>
+  <si>
+    <t>Next PLC</t>
+  </si>
+  <si>
+    <t>OML.L</t>
+  </si>
+  <si>
+    <t>Old Mutual PLC</t>
+  </si>
+  <si>
+    <t>PFC.L</t>
+  </si>
+  <si>
+    <t>Petrofac Ltd</t>
+  </si>
+  <si>
+    <t>PRU.L</t>
+  </si>
+  <si>
+    <t>Prudential PLC</t>
+  </si>
+  <si>
+    <t>PSN.L</t>
+  </si>
+  <si>
+    <t>Persimmon PLC</t>
+  </si>
+  <si>
+    <t>PSON.L</t>
+  </si>
+  <si>
+    <t>Pearson PLC</t>
+  </si>
+  <si>
+    <t>RB.L</t>
+  </si>
+  <si>
+    <t>Reckitt Benckiser Group PLC</t>
+  </si>
+  <si>
+    <t>RBS.L</t>
+  </si>
+  <si>
+    <t>Royal Bank of Scotland Group PLC</t>
+  </si>
+  <si>
+    <t>RDSA.L</t>
+  </si>
+  <si>
+    <t>Royal Dutch Shell PLC</t>
+  </si>
+  <si>
+    <t>RDSB.L</t>
+  </si>
+  <si>
+    <t>REL.L</t>
+  </si>
+  <si>
+    <t>Reed Elsevier PLC</t>
+  </si>
+  <si>
+    <t>REX.L</t>
+  </si>
+  <si>
+    <t>REXAM PLC</t>
+  </si>
+  <si>
+    <t>RIO.L</t>
+  </si>
+  <si>
+    <t>Rio Tinto PLC</t>
+  </si>
+  <si>
+    <t>RMG.L</t>
+  </si>
+  <si>
+    <t>Royal Mail PLC</t>
+  </si>
+  <si>
+    <t>RR.L</t>
+  </si>
+  <si>
+    <t>Rolls-Royce Group PLC</t>
+  </si>
+  <si>
+    <t>RRS.L</t>
+  </si>
+  <si>
+    <t>Randgold Resources Ltd</t>
+  </si>
+  <si>
+    <t>RSA.L</t>
+  </si>
+  <si>
+    <t>RSA Insurance Group PLC</t>
+  </si>
+  <si>
+    <t>SAB.L</t>
+  </si>
+  <si>
+    <t>SABMiller PLC</t>
+  </si>
+  <si>
+    <t>SBRY.L</t>
+  </si>
+  <si>
+    <t>Sainsbury (J) PLC</t>
+  </si>
+  <si>
+    <t>SDR.L</t>
+  </si>
+  <si>
+    <t>Schroders PLC</t>
+  </si>
+  <si>
+    <t>SGE.L</t>
+  </si>
+  <si>
+    <t>Sage Group (The) PLC</t>
+  </si>
+  <si>
+    <t>SHP.L</t>
+  </si>
+  <si>
+    <t>Shire PLC</t>
+  </si>
+  <si>
+    <t>SL.L</t>
+  </si>
+  <si>
+    <t>Standard Life PLC</t>
+  </si>
+  <si>
+    <t>SMIN.L</t>
+  </si>
+  <si>
+    <t>Smiths Group PLC</t>
+  </si>
+  <si>
+    <t>SN.L</t>
+  </si>
+  <si>
+    <t>Smith &amp; Nephew PLC</t>
+  </si>
+  <si>
+    <t>SPD.L</t>
+  </si>
+  <si>
+    <t>Sports Direct International PLC</t>
+  </si>
+  <si>
+    <t>SSE.L</t>
+  </si>
+  <si>
+    <t>SSE PLC</t>
+  </si>
+  <si>
+    <t>STAN.L</t>
+  </si>
+  <si>
+    <t>Standard Chartered PLC</t>
+  </si>
+  <si>
+    <t>STJ.L</t>
+  </si>
+  <si>
+    <t>St James's Place PLC</t>
+  </si>
+  <si>
+    <t>SVT.L</t>
+  </si>
+  <si>
+    <t>Severn Trent PLC</t>
+  </si>
+  <si>
+    <t>TLW.L</t>
+  </si>
+  <si>
+    <t>Tullow Oil PLC</t>
+  </si>
+  <si>
+    <t>TPK.L</t>
+  </si>
+  <si>
+    <t>Travis Perkins PLC</t>
+  </si>
+  <si>
+    <t>TSCO.L</t>
+  </si>
+  <si>
+    <t>Tesco PLC</t>
+  </si>
+  <si>
+    <t>TT.L</t>
+  </si>
+  <si>
+    <t>TUI Travel PLC</t>
+  </si>
+  <si>
+    <t>ULVR.L</t>
+  </si>
+  <si>
+    <t>Unilever PLC</t>
+  </si>
+  <si>
+    <t>UU.L</t>
+  </si>
+  <si>
+    <t>United Utilities Group PLC</t>
+  </si>
+  <si>
+    <t>VOD.L</t>
+  </si>
+  <si>
+    <t>Vodafone Group PLC</t>
+  </si>
+  <si>
+    <t>WEIR.L</t>
+  </si>
+  <si>
+    <t>Weir Group PLC</t>
+  </si>
+  <si>
+    <t>WOS.L</t>
+  </si>
+  <si>
+    <t>Wolseley PLC</t>
+  </si>
+  <si>
+    <t>WPP.L</t>
+  </si>
+  <si>
+    <t>WPP PLC</t>
+  </si>
+  <si>
+    <t>WTB.L</t>
+  </si>
+  <si>
+    <t>Whitbread PLC</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Last Trade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +1384,21 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -828,7 +1452,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,6 +1469,16 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -852,6 +1486,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1140,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:XFD124"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,7 +1794,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1188,8 +1827,11 @@
       <c r="E2" s="5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -1205,8 +1847,11 @@
       <c r="E3" s="5">
         <v>267000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
@@ -1222,8 +1867,11 @@
       <c r="E4" s="5">
         <v>120449</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -1239,8 +1887,11 @@
       <c r="E5" s="5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -1256,15 +1907,18 @@
       <c r="E6" s="5">
         <v>86865</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F6">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -1281,7 +1935,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>186</v>
       </c>
@@ -1298,14 +1952,14 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1322,7 +1976,7 @@
         <v>76433</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>233</v>
       </c>
@@ -1339,14 +1993,14 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
@@ -1363,7 +2017,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>129</v>
       </c>
@@ -1380,7 +2034,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2093,7 +2747,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>178</v>
       </c>
@@ -2110,14 +2764,14 @@
         <v>55500</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
@@ -2134,7 +2788,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
@@ -2151,7 +2805,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>237</v>
       </c>
@@ -2168,7 +2822,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>201</v>
       </c>
@@ -2185,7 +2839,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
@@ -2202,14 +2856,14 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -2225,8 +2879,11 @@
       <c r="E73" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F73">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
@@ -2242,8 +2899,11 @@
       <c r="E74" s="5">
         <v>4005</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F74">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="3" t="s">
         <v>43</v>
       </c>
@@ -2259,8 +2919,11 @@
       <c r="E75" s="5">
         <v>46370</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F75">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -2277,7 +2940,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>89</v>
       </c>
@@ -2294,7 +2957,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>93</v>
       </c>
@@ -2311,7 +2974,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>102</v>
       </c>
@@ -2327,8 +2990,11 @@
       <c r="E79" s="5">
         <v>57656</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F79">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="3" t="s">
         <v>163</v>
       </c>
@@ -2345,7 +3011,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>176</v>
       </c>
@@ -2361,8 +3027,11 @@
       <c r="E81" s="5">
         <v>67930</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F81">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="A82" s="3" t="s">
         <v>224</v>
       </c>
@@ -2379,7 +3048,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
       <c r="A83" s="3" t="s">
         <v>239</v>
       </c>
@@ -2396,14 +3065,14 @@
         <v>38561</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1">
       <c r="A85" s="3" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +3089,7 @@
         <v>6625</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1">
       <c r="A86" s="3" t="s">
         <v>45</v>
       </c>
@@ -2437,7 +3106,7 @@
         <v>97700</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1">
       <c r="A87" s="3" t="s">
         <v>159</v>
       </c>
@@ -2454,7 +3123,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1">
       <c r="A88" s="3" t="s">
         <v>182</v>
       </c>
@@ -2471,7 +3140,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
       <c r="A89" s="3" t="s">
         <v>218</v>
       </c>
@@ -2488,7 +3157,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1">
       <c r="A90" s="3" t="s">
         <v>235</v>
       </c>
@@ -2505,14 +3174,14 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>193</v>
       </c>
@@ -2529,7 +3198,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>173</v>
       </c>
@@ -2546,14 +3215,14 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>27</v>
       </c>
@@ -2570,7 +3239,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>100</v>
       </c>
@@ -3140,12 +3809,1248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6930.05</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5360.03</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5290.07</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4578.53</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4355.03</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4258.05</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3629.05</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3577.03</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3315.05</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3179.03</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3104.03</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2771.05</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2675.03</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2674.09</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2651.01</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2604.0500000000002</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2505.0300000000002</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2470.0500000000002</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2466.0500000000002</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2445.06</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2407.58</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1941.03</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1892.05</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1826.03</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1793.55</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1720.09</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1643.05</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1618.05</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1523.05</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1508.03</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1472.03</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1449.05</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1440.06</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1413.03</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1367.05</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1366.03</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1336.03</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1322.05</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1307.05</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1291.05</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1240.03</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1238.08</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1234.05</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1178.05</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1166.53</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1093.03</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1089.6400000000001</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1079.0899999999999</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1066.03</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1059.0899999999999</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1048.05</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1036.05</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1013.03</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1011.05</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="11">
+        <v>998.05</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="11">
+        <v>987.17</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="11">
+        <v>948.55</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="11">
+        <v>889.05</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="11">
+        <v>886.53</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C61" s="11">
+        <v>847.53</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="11">
+        <v>776.59</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="11">
+        <v>752.53</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="11">
+        <v>730.37</v>
+      </c>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="11">
+        <v>716.03</v>
+      </c>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="11">
+        <v>673.55</v>
+      </c>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C67" s="11">
+        <v>667.03</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="11">
+        <v>663.68</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="11">
+        <v>603.53</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="11">
+        <v>535.53</v>
+      </c>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" s="11">
+        <v>505.57</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="11">
+        <v>489.79</v>
+      </c>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" s="11">
+        <v>480.35</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="11">
+        <v>473.33</v>
+      </c>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="11">
+        <v>471.79</v>
+      </c>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" s="11">
+        <v>435.35</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="11">
+        <v>434.33</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="11">
+        <v>430.75</v>
+      </c>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C79" s="11">
+        <v>421.65</v>
+      </c>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="11">
+        <v>398.95</v>
+      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="11">
+        <v>398.73</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="11">
+        <v>397.85</v>
+      </c>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" s="11">
+        <v>383.85</v>
+      </c>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="11">
+        <v>383.13</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C85" s="11">
+        <v>376.05</v>
+      </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C86" s="11">
+        <v>366.05</v>
+      </c>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="11">
+        <v>359.48</v>
+      </c>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="11">
+        <v>346.55</v>
+      </c>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="11">
+        <v>345.65</v>
+      </c>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="11">
+        <v>320.08999999999997</v>
+      </c>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="11">
+        <v>316.17</v>
+      </c>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="11">
+        <v>310.14999999999998</v>
+      </c>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" s="11">
+        <v>284.33</v>
+      </c>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C94" s="11">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="11">
+        <v>238.75</v>
+      </c>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="11">
+        <v>234.13</v>
+      </c>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C97" s="11">
+        <v>229.68</v>
+      </c>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C98" s="11">
+        <v>216.05</v>
+      </c>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" s="11">
+        <v>204.68</v>
+      </c>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" s="11">
+        <v>193.78</v>
+      </c>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="11">
+        <v>182.05</v>
+      </c>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="11">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="D102" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D102">
+    <sortCondition descending="1" ref="D2:D102"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ftse.xlsx
+++ b/ftse.xlsx
@@ -3812,8 +3812,8 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
